--- a/Weapon sheets.xlsx
+++ b/Weapon sheets.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slave-1\Documents\RolePlay\WOIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computing\Documents\GitHub\Woin-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E27DC29-431A-4BA4-BE45-6400A4986751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3ED76613-F324-4AE3-B5CA-59BEC839E72F}"/>
+    <workbookView xWindow="-27060" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Rules notes and custom" sheetId="2" r:id="rId2"/>
-    <sheet name="Daystellar" sheetId="5" r:id="rId3"/>
-    <sheet name="Trans Sun" sheetId="6" r:id="rId4"/>
-    <sheet name="Yamamoto" sheetId="4" r:id="rId5"/>
+    <sheet name="Compiled" sheetId="9" r:id="rId3"/>
+    <sheet name="Daystellar" sheetId="5" r:id="rId4"/>
+    <sheet name="Trans Sun" sheetId="6" r:id="rId5"/>
+    <sheet name="Yamamoto" sheetId="4" r:id="rId6"/>
+    <sheet name="MegaDyne" sheetId="8" r:id="rId7"/>
+    <sheet name="Scanners" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="229">
   <si>
     <t>Errata v2.0</t>
   </si>
@@ -628,12 +630,105 @@
   </si>
   <si>
     <t>Burst is to reprisent controlled fire with Auto Weapons.</t>
+  </si>
+  <si>
+    <t>Military - lower</t>
+  </si>
+  <si>
+    <t>Military - Higher</t>
+  </si>
+  <si>
+    <t>Current military mounted scanners have the following uses</t>
+  </si>
+  <si>
+    <t>Heat optics</t>
+  </si>
+  <si>
+    <t>Infra red optics</t>
+  </si>
+  <si>
+    <t>Distance chekers</t>
+  </si>
+  <si>
+    <t>Thread detection (laser,raday,xray locks)</t>
+  </si>
+  <si>
+    <t>And work out to 10 km+  (1km for game reasons with range penalties for each km after this)</t>
+  </si>
+  <si>
+    <t>This is intended to be used as a better pair of eyes with some aditional utility for defence.  This should fall in line with what we currently have today, which should be very cheap and powerful by the time NEW timeline comes around</t>
+  </si>
+  <si>
+    <t>Taking verge science into account, and some more exotic current day scanners, we can create something that’s more akin to the correct timeline hand held scanners</t>
+  </si>
+  <si>
+    <t>Quantum radar currently exists with the use of entangled photons to be used for simmilar applications as xray, and MRI's</t>
+  </si>
+  <si>
+    <t>Current tech also includes ultrasonic sensors and tactical analysis packages.</t>
+  </si>
+  <si>
+    <t>This scanner should include all the benefits of the previous scanner. But be limited to 50metres.</t>
+  </si>
+  <si>
+    <t>this will also include scanning through walls with the use of the quantum radar. As to find heat sources / life forms.</t>
+  </si>
+  <si>
+    <t>furthermore, a tactical package should inform the player of any posible exploits. i.e this robot has weak joints in its shoulders. Or that cover is insufficiant to protect you from that weapon.</t>
+  </si>
+  <si>
+    <t>.+2d6 to target finding / location</t>
+  </si>
+  <si>
+    <t>no negatives from searching for people or attacking at range while using this</t>
+  </si>
+  <si>
+    <t>Can be used</t>
+  </si>
+  <si>
+    <t>1km range before penalties,  cannot penetrate objects</t>
+  </si>
+  <si>
+    <t>can try to intersept wireless signals</t>
+  </si>
+  <si>
+    <t>30m standard range.  +10m range penalties</t>
+  </si>
+  <si>
+    <t>laser</t>
+  </si>
+  <si>
+    <t>High Firerate Low Capacity, high quality firearms</t>
+  </si>
+  <si>
+    <t>Ex_ordinance</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>Auto Side arm</t>
+  </si>
+  <si>
+    <t>.+1d6 to hit</t>
+  </si>
+  <si>
+    <t>Side arm  Heavy</t>
+  </si>
+  <si>
+    <t>Auto heavy</t>
+  </si>
+  <si>
+    <t>Combined weapon is Overcharged shot</t>
+  </si>
+  <si>
+    <t>, 3d6 damage but uses 2 ABR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,25 +793,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,6 +828,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -786,7 +890,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FA7ADD-0AC8-4CAB-9FFB-E85E9DDB8664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8FA7ADD-0AC8-4CAB-9FFB-E85E9DDB8664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,7 +939,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE1365B-3356-431B-BC27-703D0383308D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CE1365B-3356-431B-BC27-703D0383308D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +983,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D0019-0B9A-492A-BA42-922DD483F0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D1D0019-0B9A-492A-BA42-922DD483F0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,7 +1027,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C94218C-3D11-4669-8E8E-A1ACFC43D6BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C94218C-3D11-4669-8E8E-A1ACFC43D6BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +1071,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265B7340-2FDA-446B-A5F4-872688FDB6B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265B7340-2FDA-446B-A5F4-872688FDB6B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1115,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A729A8F1-2E1E-4872-AEB1-F66FEFD13CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A729A8F1-2E1E-4872-AEB1-F66FEFD13CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1159,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF5B7F-7DB8-4930-A04C-9D2A450C9F5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9AF5B7F-7DB8-4930-A04C-9D2A450C9F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1203,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2F1DC3-27BD-46A3-946F-CABAC5DA9E67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C2F1DC3-27BD-46A3-946F-CABAC5DA9E67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1247,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEDDB43-4934-465F-BC2F-8FD3B43636ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEDDB43-4934-465F-BC2F-8FD3B43636ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,7 +1291,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736481D7-CEDE-4492-8212-070AF5E4DC4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{736481D7-CEDE-4492-8212-070AF5E4DC4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1335,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6FA564-395B-466D-B797-34707C1D2CCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC6FA564-395B-466D-B797-34707C1D2CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1409,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FD1230-538F-4B31-8179-15B5EB874523}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2FD1230-538F-4B31-8179-15B5EB874523}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1453,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3CEA68-B830-4D60-9CC3-9974971C868A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A3CEA68-B830-4D60-9CC3-9974971C868A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1497,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936141B0-4100-4CBA-ABC6-6B460D151310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936141B0-4100-4CBA-ABC6-6B460D151310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1541,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFF1723-626B-460D-9D09-9BFB5BBBFA43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AFF1723-626B-460D-9D09-9BFB5BBBFA43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1585,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B59EEE-CFA5-4BF1-B2F8-83314F7C94DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B59EEE-CFA5-4BF1-B2F8-83314F7C94DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,55 +1910,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D75A4-526E-419A-B4DD-246A46F915C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1872,22 +1976,22 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1901,10 +2005,10 @@
       <c r="H12" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K12" t="s">
@@ -1927,10 +2031,10 @@
       <c r="H13" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="4" t="s">
         <v>133</v>
       </c>
       <c r="K13" t="s">
@@ -1956,10 +2060,10 @@
       <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="4" t="s">
         <v>131</v>
       </c>
       <c r="K14" t="s">
@@ -1982,10 +2086,10 @@
       <c r="H15" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="4" t="s">
         <v>128</v>
       </c>
       <c r="K15" t="s">
@@ -2008,10 +2112,10 @@
       <c r="H16" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K16" t="s">
@@ -2040,10 +2144,10 @@
       <c r="H17" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K17" t="s">
@@ -2055,14 +2159,14 @@
       <c r="M17" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -2077,10 +2181,10 @@
       <c r="H18" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="4" t="s">
         <v>134</v>
       </c>
       <c r="K18" t="s">
@@ -2089,12 +2193,12 @@
       <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -2109,10 +2213,10 @@
       <c r="H19" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K19" t="s">
@@ -2138,10 +2242,10 @@
       <c r="H20" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="K20" t="s">
@@ -2164,10 +2268,10 @@
       <c r="H21" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="4" t="s">
         <v>130</v>
       </c>
       <c r="K21" t="s">
@@ -2193,10 +2297,10 @@
       <c r="H22" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K22" t="s">
@@ -2222,10 +2326,10 @@
       <c r="H23" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="4" t="s">
         <v>131</v>
       </c>
       <c r="K23" t="s">
@@ -2251,10 +2355,10 @@
       <c r="H24" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="4" t="s">
         <v>134</v>
       </c>
       <c r="K24" t="s">
@@ -2277,10 +2381,10 @@
       <c r="H25" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="4" t="s">
         <v>130</v>
       </c>
       <c r="K25" t="s">
@@ -2300,10 +2404,10 @@
       <c r="H26" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K26" t="s">
@@ -2323,10 +2427,10 @@
       <c r="H27" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="4" t="s">
         <v>127</v>
       </c>
       <c r="K27" t="s">
@@ -2349,10 +2453,10 @@
       <c r="H28" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K28" t="s">
@@ -2375,10 +2479,10 @@
       <c r="H29" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="4" t="s">
         <v>133</v>
       </c>
       <c r="K29" t="s">
@@ -2401,10 +2505,10 @@
       <c r="H30" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K30" t="s">
@@ -2427,10 +2531,10 @@
       <c r="H31" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="4" t="s">
         <v>131</v>
       </c>
       <c r="K31" t="s">
@@ -2453,10 +2557,10 @@
       <c r="H32" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="4" t="s">
         <v>127</v>
       </c>
       <c r="K32" t="s">
@@ -2479,10 +2583,10 @@
       <c r="H33" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K33" t="s">
@@ -2505,10 +2609,10 @@
       <c r="H34" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="4" t="s">
         <v>133</v>
       </c>
       <c r="K34" t="s">
@@ -2531,10 +2635,10 @@
       <c r="H35" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K35" t="s">
@@ -2551,10 +2655,10 @@
       <c r="H36" t="s">
         <v>141</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="4" t="s">
         <v>127</v>
       </c>
       <c r="K36" t="s">
@@ -2562,10 +2666,10 @@
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="1" t="s">
         <v>166</v>
       </c>
       <c r="N40" t="s">
@@ -2887,205 +2991,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ABD973-0E40-4EBD-AD6A-5D1971E42A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -3111,60 +3215,60 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B21:I22"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B30:I32"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B6:I7"/>
     <mergeCell ref="B11:I12"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B8:I10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B21:I22"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3173,11 +3277,2254 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B042BA87-1211-443C-987D-892FADCEDF09}">
-  <dimension ref="A2:AB39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>410</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>380</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>810</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13">
+        <v>6000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15">
+        <v>8000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16">
+        <v>450</v>
+      </c>
+      <c r="J16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17">
+        <v>360</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18">
+        <v>620</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19">
+        <v>415</v>
+      </c>
+      <c r="K19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="15">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="15">
+        <v>8</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="15">
+        <v>9</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15">
+        <v>7</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1300</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="15">
+        <v>13</v>
+      </c>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
+      <c r="G24" s="15">
+        <v>43</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1450</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="14">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>5</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="14">
+        <v>800</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="15">
+        <v>11</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2</v>
+      </c>
+      <c r="G26" s="15">
+        <v>11</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="15">
+        <v>250</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="15">
+        <v>25</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>15</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1500</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="15">
+        <v>10</v>
+      </c>
+      <c r="F28" s="15">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15">
+        <v>16</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15">
+        <v>1300</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="15">
+        <v>28</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2</v>
+      </c>
+      <c r="G29" s="15">
+        <v>6</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1600</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="14">
+        <v>17</v>
+      </c>
+      <c r="F30" s="14">
+        <v>2</v>
+      </c>
+      <c r="G30" s="14">
+        <v>11</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="14">
+        <v>800</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="6">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="6">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="6">
+        <v>11</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="6">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="6">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="6">
+        <v>18</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="6">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="6">
+        <v>22</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="6">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="6">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="6">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="6">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="6">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="6">
+        <v>22</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="6">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="6">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="6">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22">
+        <v>26</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22">
+        <v>7</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22">
+        <v>21</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22">
+        <v>18</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22">
+        <v>29</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22">
+        <v>10</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22">
+        <v>13</v>
+      </c>
+      <c r="F46" s="22">
+        <v>2</v>
+      </c>
+      <c r="G46" s="22">
+        <v>17</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22">
+        <v>16</v>
+      </c>
+      <c r="F47" s="22">
+        <v>2</v>
+      </c>
+      <c r="G47" s="22">
+        <v>8</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22">
+        <v>21</v>
+      </c>
+      <c r="F48" s="22">
+        <v>2</v>
+      </c>
+      <c r="G48" s="22">
+        <v>17</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22">
+        <v>22</v>
+      </c>
+      <c r="F49" s="22">
+        <v>2</v>
+      </c>
+      <c r="G49" s="22">
+        <v>15</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22">
+        <v>22</v>
+      </c>
+      <c r="F50" s="22">
+        <v>2</v>
+      </c>
+      <c r="G50" s="22">
+        <v>4</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22">
+        <v>19</v>
+      </c>
+      <c r="F51" s="22">
+        <v>2</v>
+      </c>
+      <c r="G51" s="22">
+        <v>13</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22">
+        <v>12</v>
+      </c>
+      <c r="F52" s="22">
+        <v>2</v>
+      </c>
+      <c r="G52" s="22">
+        <v>7</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22">
+        <v>14</v>
+      </c>
+      <c r="F53" s="22">
+        <v>2</v>
+      </c>
+      <c r="G53" s="22">
+        <v>9</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22">
+        <v>22</v>
+      </c>
+      <c r="F54" s="22">
+        <v>2</v>
+      </c>
+      <c r="G54" s="22">
+        <v>9</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22">
+        <v>24</v>
+      </c>
+      <c r="F55" s="22">
+        <v>3</v>
+      </c>
+      <c r="G55" s="22">
+        <v>11</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22">
+        <v>28</v>
+      </c>
+      <c r="F56" s="22">
+        <v>3</v>
+      </c>
+      <c r="G56" s="22">
+        <v>19</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22">
+        <v>12</v>
+      </c>
+      <c r="F57" s="22">
+        <v>2</v>
+      </c>
+      <c r="G57" s="22">
+        <v>15</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22">
+        <v>25</v>
+      </c>
+      <c r="F58" s="22">
+        <v>2</v>
+      </c>
+      <c r="G58" s="22">
+        <v>11</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22">
+        <v>16</v>
+      </c>
+      <c r="F59" s="22">
+        <v>2</v>
+      </c>
+      <c r="G59" s="22">
+        <v>15</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22">
+        <v>12</v>
+      </c>
+      <c r="F60" s="22">
+        <v>3</v>
+      </c>
+      <c r="G60" s="22">
+        <v>17</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>177</v>
+      </c>
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>176</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,51 +5532,53 @@
     <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" t="s">
-        <v>165</v>
       </c>
       <c r="U2" t="s">
         <v>185</v>
@@ -3332,34 +5681,34 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="8" t="s">
         <v>150</v>
       </c>
       <c r="U6" t="s">
@@ -3426,7 +5775,7 @@
       <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="X8" t="s">
@@ -3464,19 +5813,19 @@
       <c r="U9" t="s">
         <v>167</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="10">
         <v>7</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="10">
         <v>3</v>
       </c>
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3509,17 +5858,17 @@
       <c r="U10" t="s">
         <v>168</v>
       </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15">
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10">
         <v>17</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="10">
         <v>5</v>
       </c>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3552,81 +5901,81 @@
       <c r="U11" t="s">
         <v>169</v>
       </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15">
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10">
         <v>23</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="10">
         <v>7</v>
       </c>
-      <c r="AB11" s="15"/>
+      <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U12" t="s">
         <v>170</v>
       </c>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15">
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10">
         <v>40</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="10">
         <v>14</v>
       </c>
-      <c r="AB12" s="15"/>
+      <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="8" t="s">
         <v>150</v>
       </c>
       <c r="U13" t="s">
         <v>171</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="10">
         <v>12</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="10">
         <v>4</v>
       </c>
-      <c r="AB13" s="15"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3662,17 +6011,17 @@
       <c r="U14" t="s">
         <v>172</v>
       </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15">
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10">
         <v>20</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="Z14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="10">
         <v>6</v>
       </c>
-      <c r="AB14" s="15"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3708,17 +6057,17 @@
       <c r="U15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15">
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10">
         <v>30</v>
       </c>
-      <c r="Z15" s="16" t="s">
+      <c r="Z15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA15" s="10">
         <v>8</v>
       </c>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="10"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3751,17 +6100,17 @@
       <c r="U16" t="s">
         <v>173</v>
       </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15">
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10">
         <v>50</v>
       </c>
-      <c r="Z16" s="16" t="s">
+      <c r="Z16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="10">
         <v>12</v>
       </c>
-      <c r="AB16" s="15"/>
+      <c r="AB16" s="10"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3794,75 +6143,75 @@
       <c r="U17" t="s">
         <v>174</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="10">
         <v>10</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="Z17" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="10">
         <v>3</v>
       </c>
-      <c r="AB17" s="15"/>
+      <c r="AB17" s="10"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15">
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10">
         <v>20</v>
       </c>
-      <c r="Z18" s="16" t="s">
+      <c r="Z18" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA18" s="15">
+      <c r="AA18" s="10">
         <v>6</v>
       </c>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="10"/>
     </row>
     <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15">
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10">
         <v>40</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA19" s="15">
+      <c r="AA19" s="10">
         <v>10</v>
       </c>
-      <c r="AB19" s="15"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3895,17 +6244,17 @@
       <c r="J20" t="s">
         <v>189</v>
       </c>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15">
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10">
         <v>75</v>
       </c>
-      <c r="Z20" s="16" t="s">
+      <c r="Z20" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA20" s="15">
+      <c r="AA20" s="10">
         <v>18</v>
       </c>
-      <c r="AB20" s="15"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3935,13 +6284,13 @@
       <c r="I21">
         <v>4000</v>
       </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="15" t="s">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="AB21" s="15" t="s">
+      <c r="AB21" s="10" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3976,79 +6325,79 @@
       <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="15" t="s">
+      <c r="X22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Y22" s="15">
+      <c r="Y22" s="10">
         <v>1</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="Z22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA22" s="15">
+      <c r="AA22" s="10">
         <v>1</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15">
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10">
         <v>4</v>
       </c>
-      <c r="Z23" s="16" t="s">
+      <c r="Z23" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA23" s="15">
+      <c r="AA23" s="10">
         <v>4</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB23" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15">
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10">
         <v>10</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA24" s="15">
+      <c r="AA24" s="10">
         <v>10</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4083,17 +6432,17 @@
       <c r="J25" t="s">
         <v>189</v>
       </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15">
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10">
         <v>25</v>
       </c>
-      <c r="Z25" s="16" t="s">
+      <c r="Z25" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA25" s="15">
+      <c r="AA25" s="10">
         <v>25</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="10">
         <v>9</v>
       </c>
     </row>
@@ -4128,7 +6477,7 @@
       <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4289,12 +6638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B94564-5DAD-4F18-A3AD-08E0D07FD780}">
-  <dimension ref="A2:AB39"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,51 +6651,53 @@
     <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="S2" t="s">
-        <v>165</v>
       </c>
       <c r="U2" t="s">
         <v>185</v>
@@ -4356,34 +6707,34 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="15">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="15">
         <v>1000</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -4403,34 +6754,34 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>9</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="15">
         <v>7</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="15">
         <v>1300</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="15" t="s">
         <v>189</v>
       </c>
       <c r="K4" t="s">
@@ -4447,34 +6798,34 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>13</v>
       </c>
-      <c r="F5" s="20">
-        <v>3</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15">
         <v>43</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="15">
         <v>1450</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="15" t="s">
         <v>57</v>
       </c>
       <c r="K5" t="s">
@@ -4491,34 +6842,34 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>10</v>
       </c>
-      <c r="F6" s="19">
-        <v>3</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
         <v>5</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="14">
         <v>800</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
@@ -4535,34 +6886,34 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>11</v>
       </c>
-      <c r="F7" s="20">
-        <v>3</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="15">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15">
         <v>11</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="15">
         <v>250</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="15" t="s">
         <v>189</v>
       </c>
       <c r="K7" t="s">
@@ -4570,17 +6921,17 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="U8" s="4" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="U8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="X8" t="s">
@@ -4591,82 +6942,82 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="13" t="s">
         <v>150</v>
       </c>
       <c r="U9" t="s">
         <v>167</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="10">
         <v>7</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="10">
         <v>3</v>
       </c>
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>25</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="15">
         <v>15</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="20">
+      <c r="H10" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="15">
         <v>1500</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
@@ -4675,45 +7026,45 @@
       <c r="U10" t="s">
         <v>168</v>
       </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15">
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10">
         <v>17</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="10">
         <v>5</v>
       </c>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="15">
         <v>16</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
         <v>1300</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="15" t="s">
         <v>189</v>
       </c>
       <c r="K11" t="s">
@@ -4722,47 +7073,47 @@
       <c r="U11" t="s">
         <v>169</v>
       </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15">
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10">
         <v>23</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="10">
         <v>7</v>
       </c>
-      <c r="AB11" s="15"/>
+      <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>28</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="15">
         <v>6</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="H12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="15">
         <v>1600</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
       <c r="K12" t="s">
@@ -4771,47 +7122,47 @@
       <c r="U12" t="s">
         <v>170</v>
       </c>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15">
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10">
         <v>40</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="10">
         <v>14</v>
       </c>
-      <c r="AB12" s="15"/>
+      <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="14">
         <v>17</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="14">
         <v>2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="14">
         <v>11</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="14">
         <v>800</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
@@ -4820,220 +7171,220 @@
       <c r="U13" t="s">
         <v>171</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="10">
         <v>12</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="10">
         <v>4</v>
       </c>
-      <c r="AB13" s="15"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U14" t="s">
         <v>172</v>
       </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15">
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10">
         <v>20</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="Z14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="10">
         <v>6</v>
       </c>
-      <c r="AB14" s="15"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15">
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10">
         <v>30</v>
       </c>
-      <c r="Z15" s="16" t="s">
+      <c r="Z15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA15" s="10">
         <v>8</v>
       </c>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="10"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U16" t="s">
         <v>173</v>
       </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15">
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10">
         <v>50</v>
       </c>
-      <c r="Z16" s="16" t="s">
+      <c r="Z16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="10">
         <v>12</v>
       </c>
-      <c r="AB16" s="15"/>
+      <c r="AB16" s="10"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U17" t="s">
         <v>174</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="10">
         <v>10</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="Z17" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="10">
         <v>3</v>
       </c>
-      <c r="AB17" s="15"/>
+      <c r="AB17" s="10"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15">
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10">
         <v>20</v>
       </c>
-      <c r="Z18" s="16" t="s">
+      <c r="Z18" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA18" s="15">
+      <c r="AA18" s="10">
         <v>6</v>
       </c>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="10"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10">
         <v>40</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA19" s="15">
+      <c r="AA19" s="10">
         <v>10</v>
       </c>
-      <c r="AB19" s="15"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15">
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10">
         <v>75</v>
       </c>
-      <c r="Z20" s="16" t="s">
+      <c r="Z20" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA20" s="15">
+      <c r="AA20" s="10">
         <v>18</v>
       </c>
-      <c r="AB20" s="15"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="15" t="s">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="AB21" s="15" t="s">
+      <c r="AB21" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X22" s="15" t="s">
+      <c r="X22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Y22" s="15">
+      <c r="Y22" s="10">
         <v>1</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="Z22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AA22" s="15">
+      <c r="AA22" s="10">
         <v>1</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15">
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10">
         <v>4</v>
       </c>
-      <c r="Z23" s="16" t="s">
+      <c r="Z23" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA23" s="15">
+      <c r="AA23" s="10">
         <v>4</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB23" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10">
         <v>10</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA24" s="15">
+      <c r="AA24" s="10">
         <v>10</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15">
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10">
         <v>25</v>
       </c>
-      <c r="Z25" s="16" t="s">
+      <c r="Z25" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AA25" s="15">
+      <c r="AA25" s="10">
         <v>25</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5134,12 +7485,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3161E493-76AB-458A-9D5F-6A10277071DD}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5156,10 +7507,10 @@
       <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F1" t="s">
@@ -5167,15 +7518,15 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="P2" s="9"/>
       <c r="S2" t="s">
         <v>110</v>
       </c>
@@ -5190,47 +7541,47 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S3" t="s">
@@ -5244,25 +7595,25 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -5271,15 +7622,15 @@
       <c r="I4">
         <v>350</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="S4" t="s">
         <v>123</v>
       </c>
@@ -5291,25 +7642,25 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>14</v>
       </c>
       <c r="H5" t="s">
@@ -5329,25 +7680,25 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>18</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
@@ -5358,25 +7709,25 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>22</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -5388,7 +7739,7 @@
       <c r="M7">
         <v>2000</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="1" t="s">
         <v>166</v>
       </c>
       <c r="V7" t="s">
@@ -5399,25 +7750,25 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <v>19</v>
       </c>
       <c r="H8" t="s">
@@ -5443,25 +7794,25 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>22</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <v>19</v>
       </c>
       <c r="H9" t="s">
@@ -5484,10 +7835,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="S10" t="s">
         <v>169</v>
       </c>
@@ -5502,10 +7853,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="S11" t="s">
         <v>170</v>
       </c>
@@ -5520,14 +7871,14 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="S12" t="s">
         <v>171</v>
       </c>
@@ -5545,14 +7896,14 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="S13" t="s">
         <v>172</v>
       </c>
@@ -5595,34 +7946,34 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="S16" t="s">
@@ -5642,13 +7993,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="6">
         <v>9</v>
       </c>
       <c r="D17" t="s">
@@ -5657,7 +8008,7 @@
       <c r="E17">
         <v>11</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="6" t="s">
         <v>157</v>
       </c>
       <c r="G17">
@@ -5680,13 +8031,13 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="6">
         <v>10</v>
       </c>
       <c r="D18" t="s">
@@ -5695,7 +8046,7 @@
       <c r="E18">
         <v>21</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G18">
@@ -5796,7 +8147,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5895,4 +8246,1266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AA38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>7</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="S4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22">
+        <v>21</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>18</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" t="s">
+        <v>121</v>
+      </c>
+      <c r="V5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
+        <v>29</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>10</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
+        <v>13</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>17</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M7">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22">
+        <v>16</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
+      </c>
+      <c r="G8" s="22">
+        <v>8</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S8" t="s">
+        <v>167</v>
+      </c>
+      <c r="V8" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
+        <v>21</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>17</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S9" t="s">
+        <v>168</v>
+      </c>
+      <c r="W9">
+        <v>17</v>
+      </c>
+      <c r="X9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
+        <v>22</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>15</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S10" t="s">
+        <v>169</v>
+      </c>
+      <c r="W10">
+        <v>23</v>
+      </c>
+      <c r="X10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
+        <v>22</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="22">
+        <v>4</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S11" t="s">
+        <v>170</v>
+      </c>
+      <c r="W11">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
+        <v>19</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>13</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S12" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
+        <v>12</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>7</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S13" t="s">
+        <v>172</v>
+      </c>
+      <c r="W13">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
+        <v>14</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2</v>
+      </c>
+      <c r="G14" s="22">
+        <v>9</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S14" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14">
+        <v>30</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
+        <v>22</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="G15" s="22">
+        <v>9</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" t="s">
+        <v>173</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+      <c r="X15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
+        <v>24</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3</v>
+      </c>
+      <c r="G16" s="22">
+        <v>11</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S16" t="s">
+        <v>174</v>
+      </c>
+      <c r="V16" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
+        <v>28</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3</v>
+      </c>
+      <c r="G17" s="22">
+        <v>19</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="W17">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22">
+        <v>12</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2</v>
+      </c>
+      <c r="G18" s="22">
+        <v>15</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="W18">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
+        <v>25</v>
+      </c>
+      <c r="F19" s="22">
+        <v>2</v>
+      </c>
+      <c r="G19" s="22">
+        <v>11</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="W19">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22">
+        <v>16</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2</v>
+      </c>
+      <c r="G20" s="22">
+        <v>15</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
+        <v>12</v>
+      </c>
+      <c r="F21" s="22">
+        <v>3</v>
+      </c>
+      <c r="G21" s="22">
+        <v>17</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="V21" t="s">
+        <v>111</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>25</v>
+      </c>
+      <c r="X24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y24">
+        <v>25</v>
+      </c>
+      <c r="Z24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>57</v>
+      </c>
+      <c r="T31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>91</v>
+      </c>
+      <c r="T35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>93</v>
+      </c>
+      <c r="T36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>96</v>
+      </c>
+      <c r="T37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>98</v>
+      </c>
+      <c r="T38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="N19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B10:J12"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B21:L23"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>